--- a/test/i18n.xlsx
+++ b/test/i18n.xlsx
@@ -191,8 +191,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -268,13 +268,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -283,11 +276,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,8 +290,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,26 +314,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -345,27 +329,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,8 +344,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,7 +368,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,6 +438,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -450,7 +480,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -462,43 +570,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,19 +588,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,73 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,11 +649,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,17 +679,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,21 +703,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -728,145 +713,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="34" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1002,7 +1002,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5693410" y="2738120"/>
+          <a:off x="5693410" y="2900680"/>
           <a:ext cx="0" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1038,7 +1038,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5693410" y="1595120"/>
+          <a:off x="5693410" y="1757680"/>
           <a:ext cx="0" cy="241300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1074,7 +1074,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5693410" y="3754120"/>
+          <a:off x="5693410" y="3916680"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1110,7 +1110,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5693410" y="3754120"/>
+          <a:off x="5693410" y="3916680"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1384,9 +1384,9 @@
   <dimension ref="A1:R136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15.2"/>
@@ -1415,42 +1415,54 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" ht="16" spans="1:18">
-      <c r="A4" t="s">
+    <row r="3" ht="16" spans="1:18">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" ht="28" customHeight="1" spans="2:18">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
     </row>
     <row r="5" ht="28" customHeight="1" spans="1:18">
       <c r="A5" t="s">
@@ -4035,7 +4047,7 @@
     <mergeCell ref="C5:C6"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="C10:C13"/>
-    <mergeCell ref="A1:E3"/>
+    <mergeCell ref="A1:E2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/test/i18n.xlsx
+++ b/test/i18n.xlsx
@@ -167,7 +167,7 @@
     <t>HIS REWARD</t>
   </si>
   <si>
-    <t>sdsds</t>
+    <t>ONECE</t>
   </si>
   <si>
     <t>一旦你有 10 美元，你就可以提款</t>
@@ -191,9 +191,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -255,13 +255,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -276,15 +269,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -299,15 +286,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -330,15 +332,30 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -359,9 +376,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -369,37 +400,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,7 +432,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,19 +546,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,37 +570,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,103 +600,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,8 +634,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -644,7 +644,48 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -682,197 +723,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1074,7 +1074,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5693410" y="3916680"/>
+          <a:off x="5693410" y="4234180"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1110,7 +1110,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5693410" y="3916680"/>
+          <a:off x="5693410" y="4234180"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1386,7 +1386,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15.2"/>
@@ -1672,7 +1672,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" ht="62" hidden="1" customHeight="1" spans="1:18">
+    <row r="13" ht="25" customHeight="1" spans="1:18">
       <c r="A13" t="s">
         <v>29</v>
       </c>
